--- a/APF/Schema/SUDA3g_APF_資料字典.xlsx
+++ b/APF/Schema/SUDA3g_APF_資料字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="525" windowWidth="15045" windowHeight="7410" tabRatio="894"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15045" windowHeight="7050" tabRatio="894" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="29" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="common_parameter" sheetId="16" r:id="rId19"/>
     <sheet name="query_scope" sheetId="15" r:id="rId20"/>
     <sheet name="apf_user_roleblock" sheetId="27" r:id="rId21"/>
-    <sheet name="apf_roleprofile" sheetId="26" r:id="rId22"/>
+    <sheet name="apf_role_profile" sheetId="26" r:id="rId22"/>
     <sheet name="login_log" sheetId="19" r:id="rId23"/>
     <sheet name="apf_user_profile" sheetId="30" r:id="rId24"/>
     <sheet name="apf_action_log" sheetId="28" r:id="rId25"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="262">
   <si>
     <t>Cid</t>
   </si>
@@ -148,9 +148,6 @@
     <t>權限分類(CRUD)</t>
   </si>
   <si>
-    <t>群組名稱</t>
-  </si>
-  <si>
     <t>Enable</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
   </si>
   <si>
     <t>啟用/停用</t>
-  </si>
-  <si>
-    <t>新增日期</t>
   </si>
   <si>
     <t>角色說明</t>
@@ -261,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群組代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enable_flag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -352,23 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>archar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MNid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +475,6 @@
   </si>
   <si>
     <t>controller_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -717,10 +678,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Framework Menu Menu角色對應檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,10 +686,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Framework控制項設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,10 +698,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Framework Action設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,9 +706,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Framework 控制項角色對應檔</t>
-  </si>
-  <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,10 +849,6 @@
   </si>
   <si>
     <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1109,6 +1051,89 @@
   <si>
     <t xml:space="preserve">apf_action_log </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異動日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT(金財通參考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Action設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework 控制項角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework控制項設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Menu Menu角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1207,7 +1232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1223,6 +1248,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1332,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,6 +1437,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -9302,17 +9354,17 @@
                 <a:latin typeface="+mj-ea"/>
                 <a:ea typeface="+mj-ea"/>
               </a:rPr>
-              <a:t>apf_roleprofile </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
-              </a:rPr>
-              <a:t>角色附表</a:t>
+              <a:t>apf_role_profile </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>角色附表檔</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
               <a:latin typeface="+mj-ea"/>
@@ -13404,7 +13456,7 @@
                 <a:latin typeface="+mj-ea"/>
                 <a:ea typeface="+mj-ea"/>
               </a:rPr>
-              <a:t>控制項角色對應檔</a:t>
+              <a:t>角色權限對應檔</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
               <a:latin typeface="+mj-ea"/>
@@ -13980,7 +14032,7 @@
                 <a:latin typeface="+mj-ea"/>
                 <a:ea typeface="+mj-ea"/>
               </a:rPr>
-              <a:t>控制項角色對應檔</a:t>
+              <a:t>角色主檔</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
               <a:latin typeface="+mj-ea"/>
@@ -15720,8 +15772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15729,29 +15781,29 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -15759,16 +15811,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -15777,16 +15829,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" s="29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="30"/>
     </row>
@@ -15795,34 +15847,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="28"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -15831,16 +15882,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -15849,16 +15900,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -15867,34 +15918,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -15903,34 +15956,36 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>167</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -15939,16 +15994,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -15957,106 +16012,116 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="30"/>
+        <v>184</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="30"/>
+        <v>186</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="30"/>
+        <v>189</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="30"/>
+        <v>201</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="30"/>
+        <v>197</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -16065,16 +16130,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F19" s="30"/>
     </row>
@@ -16083,70 +16148,76 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="28"/>
+        <v>207</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="27">
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="28"/>
+        <v>212</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F23" s="28"/>
     </row>
@@ -16155,16 +16226,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -16173,16 +16244,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -16221,9 +16292,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -16240,25 +16313,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16267,20 +16340,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16292,66 +16365,46 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B9" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16382,25 +16435,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16409,20 +16462,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16434,12 +16487,12 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -16449,15 +16502,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -16467,15 +16520,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -16493,7 +16546,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -16518,7 +16571,7 @@
   <dimension ref="A5:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A9:XFD9 A11:XFD11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16534,25 +16587,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16561,20 +16614,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16583,7 +16636,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -16591,7 +16644,7 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -16601,14 +16654,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -16621,7 +16674,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -16629,7 +16682,7 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -16639,7 +16692,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -16647,7 +16700,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="2"/>
@@ -16657,7 +16710,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -16665,7 +16718,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
@@ -16675,17 +16728,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -16693,7 +16746,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -16720,7 +16773,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16737,25 +16790,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -16763,22 +16816,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -16786,17 +16839,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -16805,14 +16858,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -16824,17 +16877,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -16843,14 +16896,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -16862,17 +16915,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>182</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -16882,7 +16937,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -16924,25 +16979,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16950,22 +17005,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -16973,17 +17028,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -16992,17 +17047,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G8" s="23"/>
     </row>
@@ -17011,14 +17066,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>1</v>
@@ -17030,14 +17085,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
@@ -17049,17 +17104,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17068,18 +17123,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -17087,17 +17142,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -17106,15 +17161,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -17123,15 +17178,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17140,15 +17195,15 @@
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -17157,22 +17212,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="19"/>
       <c r="B19" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -17197,7 +17252,9 @@
   </sheetPr>
   <dimension ref="A5:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -17213,25 +17270,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17240,22 +17297,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17264,17 +17321,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17284,19 +17341,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17307,7 +17364,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -17334,7 +17391,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17352,25 +17409,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17379,20 +17436,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17401,20 +17458,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -17423,17 +17480,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17444,7 +17501,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -17471,7 +17528,7 @@
   <dimension ref="A5:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17487,25 +17544,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17514,20 +17571,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17536,27 +17593,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -17583,7 +17640,7 @@
   <dimension ref="A5:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17598,25 +17655,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17625,20 +17682,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17647,17 +17704,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17667,17 +17724,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17687,17 +17744,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -17707,14 +17764,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -17725,7 +17782,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -17767,25 +17824,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="34" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17794,18 +17851,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17814,17 +17871,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17834,17 +17891,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17854,17 +17911,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -17874,17 +17931,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="2"/>
@@ -17894,14 +17951,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -17913,17 +17970,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="2"/>
@@ -17931,7 +17988,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -17971,25 +18028,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17997,20 +18054,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18025,10 +18082,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -18044,7 +18101,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -18063,7 +18120,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -18082,7 +18139,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -18101,7 +18158,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -18127,7 +18184,9 @@
   </sheetPr>
   <dimension ref="A5:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -18142,25 +18201,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18169,20 +18228,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18191,20 +18250,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -18213,17 +18272,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -18231,7 +18290,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -18255,10 +18314,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18276,25 +18335,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18303,20 +18362,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18328,56 +18387,36 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="2"/>
-    </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B9" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18392,8 +18431,8 @@
   </sheetPr>
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18408,25 +18447,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18435,20 +18474,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18457,17 +18496,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -18477,17 +18516,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18497,15 +18536,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -18513,7 +18552,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -18539,7 +18578,9 @@
   </sheetPr>
   <dimension ref="A5:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -18553,25 +18594,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18580,18 +18621,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18600,19 +18641,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -18622,19 +18663,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18644,19 +18685,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -18666,16 +18707,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -18686,7 +18727,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -18728,25 +18769,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18755,20 +18796,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18777,14 +18818,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -18797,15 +18838,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18837,7 +18878,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -18864,7 +18905,7 @@
   <dimension ref="A5:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18879,25 +18920,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18906,21 +18947,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>142</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G6" s="23"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -18928,19 +18967,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="2"/>
@@ -18950,19 +18989,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18972,17 +19011,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -18992,14 +19031,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>7</v>
@@ -19010,7 +19049,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -19034,7 +19073,7 @@
   <dimension ref="A5:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19050,25 +19089,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -19076,20 +19115,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -19104,7 +19143,7 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -19123,7 +19162,7 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -19142,10 +19181,10 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -19161,7 +19200,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -19180,7 +19219,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
@@ -19200,7 +19239,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
       <c r="F12" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -19209,15 +19248,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -19226,15 +19265,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -19243,15 +19282,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -19260,21 +19299,21 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -19308,25 +19347,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19342,13 +19381,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19357,17 +19396,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -19385,7 +19424,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -19425,25 +19464,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19455,17 +19494,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19481,10 +19520,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -19502,7 +19541,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -19542,25 +19581,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19576,13 +19615,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19598,7 +19637,7 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -19618,10 +19657,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19639,7 +19678,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -19657,7 +19696,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -19681,7 +19720,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19698,25 +19737,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19732,13 +19771,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19754,13 +19793,13 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -19776,10 +19815,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19797,7 +19836,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -19822,7 +19861,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19839,25 +19878,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19869,17 +19908,17 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19891,14 +19930,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -19908,17 +19947,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19926,7 +19965,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -19950,7 +19989,7 @@
   <dimension ref="A5:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19966,25 +20005,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19993,20 +20032,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20015,17 +20054,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -20035,17 +20074,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -20055,17 +20094,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -20083,7 +20122,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>

--- a/APF/Schema/SUDA3g_APF_資料字典.xlsx
+++ b/APF/Schema/SUDA3g_APF_資料字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15045" windowHeight="7050" tabRatio="894" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="930" windowWidth="15045" windowHeight="7005" tabRatio="894"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="29" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="login_log" sheetId="19" r:id="rId23"/>
     <sheet name="apf_user_profile" sheetId="30" r:id="rId24"/>
     <sheet name="apf_action_log" sheetId="28" r:id="rId25"/>
+    <sheet name="apf_session_log" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="288">
   <si>
     <t>Cid</t>
   </si>
@@ -211,46 +212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>create_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reate_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>datetime</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +340,6 @@
   </si>
   <si>
     <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,10 +536,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -797,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前3碼ModuleID後7碼流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_menu_root</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -931,11 +880,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0:預設角色 1:職稱角色 2:自定角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同Cor_User Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:SSO驗證 2:主檔驗證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入Log記錄檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_user_profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼更新日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_remind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者附表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者異動記錄檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">apf_action_log </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT(金財通參考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Action設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework 控制項角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework控制項設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Menu Menu角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢範圍識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色來源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
+    <t>source_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_name</t>
+  </si>
+  <si>
+    <t>log_paramater</t>
+  </si>
+  <si>
+    <t>log_type</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(MAX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,196 +1102,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模式</t>
+    <t>功能識別值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>網路位置</t>
+    <t>Controller名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同Cor_User Table</t>
+    <t>Action名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:SSO驗證 2:主檔驗證</t>
+    <t>Log參數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登入Log記錄檔</t>
+    <t>建立日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apf_user_profile</t>
+    <t>Log型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+R+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+N+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+C+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action識別群組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_session_log</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼更新日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD_remind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ction</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:新增2:修改3:刪除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>har(1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者附表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者異動記錄檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">apf_action_log </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT(金財通參考)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework Action設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework 控制項角色對應檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework控制項設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework Menu Menu角色對應檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
+    <t>使用者Session記錄檔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10858,7 +10900,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8286750" cy="495300"/>
+          <a:ext cx="8496300" cy="495300"/>
           <a:chOff x="0" y="47625"/>
           <a:chExt cx="8858249" cy="495300"/>
         </a:xfrm>
@@ -11307,6 +11349,602 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="33" name="Rectangle 6"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8010524" y="123825"/>
+            <a:ext cx="847725" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>最新異動日</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>2013/09/30</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US">
+              <a:latin typeface="新細明體" pitchFamily="18" charset="-120"/>
+              <a:ea typeface="新細明體" pitchFamily="18" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8496300" cy="495300"/>
+          <a:chOff x="0" y="47625"/>
+          <a:chExt cx="8858249" cy="495300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="123825"/>
+            <a:ext cx="1185912" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>專案</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>速達</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>3G</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>系統</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1185912" y="123825"/>
+            <a:ext cx="2189375" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>模組別</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t> 使用者管理模組</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 5"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3363884" y="123825"/>
+            <a:ext cx="2998988" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>apf_session_log </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>使用者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>Session</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>記錄檔</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 6"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6362872" y="123825"/>
+            <a:ext cx="821016" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>吳英杰</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 7"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7183887" y="123825"/>
+            <a:ext cx="826638" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>201</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>3/09/30</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1050">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Line 8"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="47625"/>
+            <a:ext cx="8848725" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 6"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -15770,10 +16408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15788,22 +16426,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -15811,16 +16449,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -15829,16 +16467,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F3" s="30"/>
     </row>
@@ -15847,16 +16485,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -15864,16 +16502,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -15882,16 +16520,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -15900,16 +16538,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -15918,19 +16556,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -15938,16 +16576,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -15956,19 +16594,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -15976,16 +16614,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -15994,16 +16632,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -16012,19 +16650,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16032,19 +16670,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16052,19 +16690,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -16072,19 +16710,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16092,19 +16730,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -16112,16 +16750,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -16130,16 +16768,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F19" s="30"/>
     </row>
@@ -16148,19 +16786,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -16168,19 +16806,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16188,19 +16826,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -16208,16 +16846,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F23" s="28"/>
     </row>
@@ -16226,16 +16864,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -16244,18 +16882,36 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16284,6 +16940,7 @@
     <hyperlink ref="E23" location="login_log!A1" display="login_log"/>
     <hyperlink ref="E24" location="apf_user_profile!A1" display="apf_user_profile"/>
     <hyperlink ref="E25" location="apf_action_log!A1" display="apf_action_log "/>
+    <hyperlink ref="E26" location="apf_session_log!A1" display="apf_session_log"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16313,25 +16970,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16347,13 +17004,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16365,17 +17022,17 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -16392,7 +17049,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -16435,25 +17092,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16469,13 +17126,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16492,7 +17149,7 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -16510,7 +17167,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -16528,7 +17185,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -16546,7 +17203,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -16587,25 +17244,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -16614,20 +17271,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -16636,7 +17293,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -16644,7 +17301,7 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -16654,14 +17311,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -16674,7 +17331,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -16682,7 +17339,7 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -16692,7 +17349,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -16700,7 +17357,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="2"/>
@@ -16710,7 +17367,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -16718,7 +17375,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="23"/>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
@@ -16728,17 +17385,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -16746,7 +17403,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -16773,7 +17430,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16790,25 +17447,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -16816,22 +17473,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -16839,17 +17496,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -16858,14 +17515,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -16877,17 +17534,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -16896,14 +17553,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -16915,19 +17572,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -16937,7 +17594,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -16963,7 +17620,7 @@
   <dimension ref="A5:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16979,25 +17636,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17005,22 +17662,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17028,17 +17685,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -17047,17 +17704,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" s="23"/>
     </row>
@@ -17066,14 +17723,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>1</v>
@@ -17085,14 +17742,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
@@ -17104,17 +17761,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17123,18 +17780,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -17142,17 +17799,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -17164,12 +17821,12 @@
         <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -17178,7 +17835,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>50</v>
@@ -17212,7 +17869,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>52</v>
@@ -17227,7 +17884,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="19"/>
       <c r="B19" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -17253,7 +17910,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17270,25 +17927,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17297,22 +17954,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17321,17 +17978,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17341,19 +17998,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17364,7 +18021,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -17409,25 +18066,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17436,20 +18093,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17458,20 +18115,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -17480,17 +18137,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17501,7 +18158,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -17544,25 +18201,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17571,20 +18228,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17593,27 +18250,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -17655,25 +18312,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17682,20 +18339,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17704,17 +18361,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17724,17 +18381,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17744,17 +18401,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -17764,14 +18421,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -17782,7 +18439,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -17824,25 +18481,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="F5" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17851,18 +18508,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17871,17 +18528,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -17891,17 +18548,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -17911,17 +18568,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="2"/>
@@ -17931,17 +18588,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="2"/>
@@ -17951,14 +18608,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -17970,14 +18627,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>37</v>
@@ -17988,7 +18645,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -18028,25 +18685,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -18054,20 +18711,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18082,10 +18739,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -18101,7 +18758,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -18120,7 +18777,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -18139,7 +18796,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -18158,7 +18815,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -18185,7 +18842,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18201,25 +18858,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18228,20 +18885,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18250,20 +18907,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -18272,17 +18929,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="2"/>
@@ -18290,7 +18947,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -18335,25 +18992,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18369,13 +19026,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18387,24 +19044,24 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -18431,8 +19088,8 @@
   </sheetPr>
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18447,25 +19104,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18474,20 +19131,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18496,17 +19153,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -18516,17 +19173,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18536,7 +19193,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -18544,7 +19201,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -18552,7 +19209,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -18594,25 +19251,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18621,18 +19278,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18641,19 +19298,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -18663,19 +19320,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -18685,19 +19342,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -18707,16 +19364,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -18727,7 +19384,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -18752,9 +19409,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A5:H12"/>
+  <dimension ref="A5:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -18769,25 +19428,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18796,20 +19455,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18818,14 +19477,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -18838,59 +19497,35 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="2"/>
-    </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B10" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18902,10 +19537,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A5:H12"/>
+  <dimension ref="A5:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18914,31 +19549,31 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18947,17 +19582,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="2"/>
@@ -18967,19 +19602,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>237</v>
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="2"/>
@@ -18989,19 +19622,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19010,18 +19641,18 @@
       <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
+      <c r="B9" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>242</v>
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -19030,38 +19661,238 @@
       <c r="A10" s="22">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>57</v>
+      <c r="B10" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19"/>
+      <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B16" location="Table_List!A1" display="返回index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19"/>
+      <c r="B10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B10" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19089,25 +19920,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -19115,20 +19946,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -19143,7 +19974,7 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -19162,7 +19993,7 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -19181,10 +20012,10 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -19200,7 +20031,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -19219,7 +20050,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
@@ -19239,7 +20070,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="23"/>
       <c r="F12" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -19248,15 +20079,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -19265,7 +20096,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>50</v>
@@ -19282,7 +20113,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>51</v>
@@ -19299,7 +20130,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>52</v>
@@ -19313,7 +20144,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -19347,25 +20178,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19381,13 +20212,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19396,17 +20227,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -19424,7 +20255,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -19464,25 +20295,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19494,17 +20325,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19520,10 +20351,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -19541,7 +20372,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -19565,9 +20396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19581,25 +20410,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19615,13 +20444,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19637,7 +20466,7 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -19657,10 +20486,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19678,7 +20507,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -19696,7 +20525,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -19737,25 +20566,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19771,13 +20600,13 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19793,13 +20622,13 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -19815,10 +20644,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19836,7 +20665,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -19861,7 +20690,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19878,25 +20707,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19908,17 +20737,17 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19927,17 +20756,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -19954,10 +20783,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -19965,7 +20794,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -19989,7 +20818,7 @@
   <dimension ref="A5:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20005,25 +20834,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20032,20 +20861,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20054,17 +20883,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="2"/>
@@ -20081,10 +20910,10 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -20101,7 +20930,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
@@ -20122,7 +20951,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>

--- a/APF/Schema/SUDA3g_APF_資料字典.xlsx
+++ b/APF/Schema/SUDA3g_APF_資料字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\Schema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="930" windowWidth="15045" windowHeight="7005" tabRatio="894"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="894" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="29" r:id="rId1"/>
@@ -34,12 +39,12 @@
     <sheet name="apf_action_log" sheetId="28" r:id="rId25"/>
     <sheet name="apf_session_log" sheetId="31" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="299">
   <si>
     <t>Cid</t>
   </si>
@@ -387,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +441,6 @@
   </si>
   <si>
     <t>權限分類(CRUDO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_node_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,14 +774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>點擊記錄識別值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,10 +861,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,150 +877,334 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>同Cor_User Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:SSO驗證 2:主檔驗證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入Log記錄檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_user_profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼更新日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD_remind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者附表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">apf_action_log </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT(金財通參考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Action設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework 控制項角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework控制項設定檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework Menu Menu角色對應檔(無使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢範圍識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_name</t>
+  </si>
+  <si>
+    <t>log_paramater</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+R+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+N+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+C+6碼流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action識別群組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者Session記錄檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者異動記錄檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_session_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv6二進位制下為128位元長度，以16位元為一組，每組以冒號":"隔開，可以分為8組，每組以4位元十六進制方式表示。例如：
+2001:0db8:85a3:08d3:1319:8a2e:0370:7344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單根節點識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單根節點識別值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(MAX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>網路位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同Cor_User Table</t>
+    <t>ip_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:SSO驗證 2:主檔驗證</t>
+    <t>nvarchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登入Log記錄檔</t>
+    <t>nvarchar(45)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apf_user_profile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
+    <t>包含以下兩種：CRUDO都記
+0.UI = Html Tag
+1.ActionData = Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWD_update</t>
+    <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼更新日</t>
+    <t>log_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWD_remind</t>
+    <t>Log型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者附表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者異動記錄檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">apf_action_log </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT(金財通參考)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework Action設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework 控制項角色對應檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework控制項設定檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework Menu Menu角色對應檔(無使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢範圍識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,138 +1212,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>account</t>
+    <t>menu_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>controller_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_name</t>
-  </si>
-  <si>
-    <t>log_paramater</t>
-  </si>
-  <si>
-    <t>log_type</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(50)</t>
+    <t>nvarchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
+    <t>varchar(36)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(MAX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log參數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前3碼ModuleID+R+6碼流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前3碼ModuleID+N+6碼流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前3碼ModuleID+C+6碼流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action識別群組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>session_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_session_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者Session記錄檔</t>
+    <t>紀錄GUID(32)，含分隔符號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,7 +1428,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1406,9 +1460,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
@@ -1507,6 +1558,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -16164,7 +16218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16199,7 +16253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16410,8 +16464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16425,493 +16479,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="30"/>
+      <c r="B3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>148</v>
+      <c r="B4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="28"/>
+      <c r="B5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="28"/>
+      <c r="B6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="28"/>
+      <c r="B7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>234</v>
+      <c r="B8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="B9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>232</v>
+      <c r="B10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="B11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="28"/>
+      <c r="B12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>233</v>
+      <c r="B13" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>233</v>
+      <c r="B14" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>233</v>
+      <c r="B15" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>231</v>
+      <c r="B16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>230</v>
+      <c r="B17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="30"/>
+      <c r="B18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="30"/>
+      <c r="B19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>232</v>
+      <c r="B20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>229</v>
+      <c r="B21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>232</v>
+      <c r="B22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="28"/>
+      <c r="B23" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="28"/>
+      <c r="B24" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="28"/>
+      <c r="B25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="28"/>
+      <c r="B26" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16936,7 +16990,7 @@
     <hyperlink ref="E19" location="common_parameter!A1" display="common_parameter"/>
     <hyperlink ref="E20" location="query_scope!A1" display="query_scope"/>
     <hyperlink ref="E21" location="apf_user_roleblock!A1" display="apf_user_role_block"/>
-    <hyperlink ref="E22" location="apf_roleprofile!A1" display="apf_role_profile"/>
+    <hyperlink ref="E22" location="apf_role_profile!A1" display="apf_role_profile"/>
     <hyperlink ref="E23" location="login_log!A1" display="login_log"/>
     <hyperlink ref="E24" location="apf_user_profile!A1" display="apf_user_profile"/>
     <hyperlink ref="E25" location="apf_action_log!A1" display="apf_action_log "/>
@@ -16969,31 +17023,31 @@
       <c r="A3" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -17002,20 +17056,20 @@
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17024,38 +17078,38 @@
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
@@ -17091,31 +17145,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -17124,20 +17178,20 @@
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17146,16 +17200,16 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -17164,16 +17218,16 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -17182,34 +17236,34 @@
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>
@@ -17228,7 +17282,7 @@
   <dimension ref="A5:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17243,31 +17297,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -17276,20 +17330,20 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17298,16 +17352,16 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -17316,18 +17370,18 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -17336,16 +17390,16 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -17354,16 +17408,16 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -17373,15 +17427,15 @@
         <v>11</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -17391,25 +17445,25 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="2"/>
     </row>
   </sheetData>
@@ -17430,7 +17484,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17446,129 +17500,129 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>259</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+        <v>173</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>286</v>
+      </c>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -17578,13 +17632,13 @@
         <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>130</v>
+        <v>176</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17592,15 +17646,15 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17620,7 +17674,7 @@
   <dimension ref="A5:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17635,152 +17689,152 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>260</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+        <v>157</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>296</v>
+      </c>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>176</v>
+      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>75</v>
@@ -17788,14 +17842,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -17805,16 +17859,16 @@
         <v>60</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="23" t="s">
-        <v>130</v>
+      <c r="E13" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -17826,16 +17880,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>50</v>
@@ -17848,7 +17902,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -17865,7 +17919,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -17882,15 +17936,15 @@
       <c r="G17" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19"/>
-      <c r="B19" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17926,75 +17980,75 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>261</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+        <v>174</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -18004,30 +18058,30 @@
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+        <v>110</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -18065,106 +18119,106 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" customFormat="1">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" customFormat="1">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" customFormat="1">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" customFormat="1">
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" customFormat="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -18185,7 +18239,7 @@
   <dimension ref="A5:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18200,83 +18254,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
@@ -18294,10 +18348,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A5:H12"/>
+  <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18311,53 +18365,53 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -18366,92 +18420,114 @@
       <c r="C7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22">
+    <row r="8" spans="1:8" ht="57">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+        <v>284</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="23"/>
+      <c r="B10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="2"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18"/>
+      <c r="B13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B13" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18466,7 +18542,7 @@
   <dimension ref="A5:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18480,31 +18556,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18512,19 +18588,19 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -18533,18 +18609,18 @@
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -18553,18 +18629,18 @@
       <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>186</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18573,18 +18649,18 @@
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -18593,18 +18669,18 @@
       <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>186</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -18614,8 +18690,8 @@
         <v>68</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="23" t="s">
-        <v>130</v>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -18623,7 +18699,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -18632,26 +18708,26 @@
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="23" t="s">
-        <v>130</v>
+      <c r="D12" s="34"/>
+      <c r="E12" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="2"/>
     </row>
   </sheetData>
@@ -18684,30 +18760,30 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18716,19 +18792,19 @@
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -18737,17 +18813,17 @@
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>131</v>
+      </c>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -18756,17 +18832,17 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -18775,17 +18851,17 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>130</v>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -18794,34 +18870,34 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>130</v>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18857,64 +18933,64 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
@@ -18925,7 +19001,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -18934,26 +19010,26 @@
       <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>235</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -18991,31 +19067,31 @@
       <c r="A3" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -19024,20 +19100,20 @@
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -19046,28 +19122,28 @@
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
@@ -19088,9 +19164,7 @@
   </sheetPr>
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19103,42 +19177,42 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -19149,47 +19223,47 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -19199,23 +19273,23 @@
         <v>53</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>202</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>
@@ -19236,7 +19310,7 @@
   <dimension ref="A5:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19250,40 +19324,40 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -19294,29 +19368,29 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+        <v>210</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22">
+    <row r="8" spans="1:8" ht="42.75">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -19325,46 +19399,46 @@
       <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>282</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+        <v>211</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>77</v>
@@ -19372,25 +19446,25 @@
       <c r="D10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="2"/>
     </row>
   </sheetData>
@@ -19427,64 +19501,64 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -19493,33 +19567,33 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -19539,9 +19613,7 @@
   </sheetPr>
   <dimension ref="A5:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19554,213 +19626,219 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>263</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="23"/>
+        <v>249</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+        <v>264</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="17"/>
+        <v>297</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="4" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22">
+    <row r="12" spans="1:8" ht="49.5">
+      <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
+        <v>291</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>9</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>259</v>
+      <c r="B14" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19"/>
-      <c r="B16" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="2"/>
     </row>
   </sheetData>
@@ -19778,7 +19856,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19792,101 +19870,101 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>263</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="17"/>
+        <v>266</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>157</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -19919,30 +19997,30 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -19951,19 +20029,19 @@
       <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -19972,17 +20050,17 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -19991,17 +20069,17 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>130</v>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -20010,17 +20088,17 @@
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>131</v>
+      </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -20029,17 +20107,17 @@
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>130</v>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -20049,8 +20127,8 @@
         <v>25</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="23" t="s">
-        <v>130</v>
+      <c r="E11" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
@@ -20058,7 +20136,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -20068,18 +20146,18 @@
         <v>27</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>76</v>
@@ -20087,64 +20165,64 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="31" t="s">
-        <v>132</v>
+      <c r="B18" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -20177,31 +20255,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -20210,58 +20288,58 @@
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
@@ -20294,31 +20372,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -20327,20 +20405,20 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -20349,36 +20427,36 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
@@ -20409,31 +20487,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -20442,20 +20520,20 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -20464,18 +20542,18 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -20484,18 +20562,18 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -20504,34 +20582,34 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>150</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>
@@ -20565,31 +20643,31 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" customFormat="1">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -20598,9 +20676,9 @@
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20611,7 +20689,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" customFormat="1">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -20620,9 +20698,9 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -20633,7 +20711,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="33">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -20642,36 +20720,36 @@
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" customFormat="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" customFormat="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -20706,42 +20784,42 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>236</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20752,27 +20830,27 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+        <v>237</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -20781,26 +20859,26 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
@@ -20833,73 +20911,73 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>130</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>131</v>
+      <c r="G6" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>130</v>
+        <v>253</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>157</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -20908,18 +20986,18 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>158</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -20928,36 +21006,36 @@
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>130</v>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>

--- a/APF/Schema/SUDA3g_APF_資料字典.xlsx
+++ b/APF/Schema/SUDA3g_APF_資料字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="894" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="894" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="29" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="303">
   <si>
     <t>Cid</t>
   </si>
@@ -361,18 +361,6 @@
   </si>
   <si>
     <t>parameter_desrciption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter_class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,10 +774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_menu_rolerelation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1229,6 +1213,38 @@
   </si>
   <si>
     <t>紀錄GUID(32)，含分隔符號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_query_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢欄位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設查詢條件選擇的欄位id，條件下拉選單來源為common_parameter，class = DefaultQuery，name = 查詢欄位中文名稱，value = 查詢欄位id。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1444,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1555,18 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3982,7 +4010,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="47625" y="123825"/>
-          <a:ext cx="8067675" cy="495300"/>
+          <a:ext cx="8181975" cy="495300"/>
           <a:chOff x="0" y="47625"/>
           <a:chExt cx="8858249" cy="495300"/>
         </a:xfrm>
@@ -16464,8 +16492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16480,22 +16508,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -16503,16 +16531,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="E2" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" s="29"/>
     </row>
@@ -16521,16 +16549,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -16539,16 +16567,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -16556,16 +16584,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -16574,16 +16602,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -16592,16 +16620,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="27"/>
     </row>
@@ -16610,19 +16638,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16630,16 +16658,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -16648,19 +16676,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16668,16 +16696,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F11" s="27"/>
     </row>
@@ -16686,16 +16714,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="27"/>
     </row>
@@ -16704,19 +16732,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16724,19 +16752,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16744,19 +16772,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -16764,19 +16792,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16784,19 +16812,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -16804,16 +16832,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -16822,16 +16850,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -16840,19 +16868,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -16860,19 +16888,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16880,19 +16908,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -16900,16 +16928,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F23" s="27"/>
     </row>
@@ -16918,16 +16946,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -16936,16 +16964,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F25" s="27"/>
     </row>
@@ -16954,16 +16982,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F26" s="27"/>
     </row>
@@ -17024,25 +17052,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17058,13 +17086,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17080,13 +17108,13 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -17103,7 +17131,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -17146,25 +17174,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17180,13 +17208,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17203,7 +17231,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -17221,7 +17249,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -17239,7 +17267,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -17257,7 +17285,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -17298,25 +17326,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17332,13 +17360,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17355,7 +17383,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -17372,7 +17400,7 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -17393,7 +17421,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -17411,7 +17439,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="2"/>
@@ -17429,7 +17457,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="22"/>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
@@ -17445,11 +17473,11 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -17457,7 +17485,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -17501,25 +17529,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17527,22 +17555,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17550,17 +17578,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -17569,14 +17597,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -17588,17 +17616,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -17607,14 +17635,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -17632,13 +17660,13 @@
         <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17648,7 +17676,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -17671,16 +17699,14 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A5:H19"/>
+  <dimension ref="A5:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
@@ -17690,25 +17716,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17716,22 +17742,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17739,17 +17765,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -17758,17 +17784,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G8" s="22"/>
     </row>
@@ -17777,14 +17803,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>1</v>
@@ -17796,14 +17822,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
@@ -17815,17 +17841,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17834,7 +17860,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>75</v>
@@ -17842,7 +17868,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>78</v>
@@ -17860,44 +17886,46 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21">
+    <row r="14" spans="1:7" ht="66">
+      <c r="A14" s="38">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="B14" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9" t="s">
-        <v>49</v>
+      <c r="F15" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17906,10 +17934,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -17923,33 +17951,50 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B20" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17981,25 +18026,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18008,22 +18053,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18032,17 +18077,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -18058,13 +18103,13 @@
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18075,7 +18120,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -18120,25 +18165,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18147,20 +18192,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18169,20 +18214,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -18191,17 +18236,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18212,7 +18257,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -18255,25 +18300,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18282,20 +18327,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18304,27 +18349,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -18366,25 +18411,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18393,20 +18438,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18422,10 +18467,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -18435,19 +18480,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18457,17 +18502,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -18477,17 +18522,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="2"/>
@@ -18497,14 +18542,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -18515,7 +18560,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -18542,7 +18587,7 @@
   <dimension ref="A5:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18557,25 +18602,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18584,18 +18629,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18604,17 +18649,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -18624,17 +18669,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18644,17 +18689,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -18671,10 +18716,10 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="2"/>
@@ -18684,14 +18729,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -18710,7 +18755,7 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>37</v>
@@ -18721,7 +18766,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -18761,25 +18806,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -18794,13 +18839,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18815,10 +18860,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -18834,7 +18879,7 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -18853,7 +18898,7 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -18872,7 +18917,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -18891,7 +18936,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -18934,25 +18979,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18964,17 +19009,17 @@
         <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18983,14 +19028,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
@@ -19012,10 +19057,10 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -19023,7 +19068,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -19068,25 +19113,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19102,13 +19147,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19124,20 +19169,20 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -19178,25 +19223,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19205,14 +19250,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -19230,14 +19275,14 @@
         <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -19247,17 +19292,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19275,7 +19320,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="16"/>
       <c r="F9" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -19283,7 +19328,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -19325,25 +19370,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19352,12 +19397,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -19375,16 +19420,16 @@
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -19394,19 +19439,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19416,19 +19461,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -19438,7 +19483,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>77</v>
@@ -19447,7 +19492,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -19458,7 +19503,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="18"/>
       <c r="B12" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -19502,25 +19547,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19529,20 +19574,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19551,14 +19596,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -19571,15 +19616,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19587,7 +19632,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -19613,7 +19658,9 @@
   </sheetPr>
   <dimension ref="A5:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19627,25 +19674,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19654,17 +19701,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="2"/>
@@ -19674,19 +19721,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="2"/>
@@ -19696,17 +19743,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19716,17 +19763,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -19736,17 +19783,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -19756,15 +19803,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="22"/>
       <c r="F11" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -19774,19 +19821,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -19796,14 +19843,14 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>7</v>
@@ -19816,15 +19863,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="22"/>
       <c r="F14" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="2"/>
@@ -19832,7 +19879,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="18"/>
       <c r="B16" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19"/>
@@ -19871,25 +19918,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19898,20 +19945,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19920,17 +19967,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="2"/>
@@ -19940,17 +19987,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19958,7 +20005,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -19998,25 +20045,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -20031,13 +20078,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -20052,7 +20099,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -20071,7 +20118,7 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -20090,10 +20137,10 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -20109,7 +20156,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -20128,7 +20175,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
@@ -20148,7 +20195,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="22"/>
       <c r="F12" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -20157,7 +20204,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>76</v>
@@ -20165,7 +20212,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -20174,7 +20221,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>50</v>
@@ -20191,7 +20238,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>51</v>
@@ -20208,7 +20255,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>52</v>
@@ -20222,7 +20269,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -20256,25 +20303,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20290,13 +20337,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20312,10 +20359,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -20333,7 +20380,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -20373,25 +20420,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20407,13 +20454,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20429,10 +20476,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -20450,7 +20497,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -20488,25 +20535,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20522,13 +20569,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20544,7 +20591,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -20564,10 +20611,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20585,7 +20632,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -20603,7 +20650,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -20644,25 +20691,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20678,7 +20725,7 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20700,7 +20747,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -20722,10 +20769,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20743,7 +20790,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -20785,25 +20832,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20815,11 +20862,11 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20834,17 +20881,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -20861,10 +20908,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20872,7 +20919,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -20912,25 +20959,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20939,20 +20986,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20964,14 +21011,14 @@
         <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -20988,10 +21035,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -21008,7 +21055,7 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
@@ -21029,7 +21076,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>

--- a/APF/Schema/SUDA3g_APF_資料字典.xlsx
+++ b/APF/Schema/SUDA3g_APF_資料字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\Schema\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="894" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20490" windowHeight="7770" tabRatio="894" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="29" r:id="rId1"/>
@@ -39,12 +34,12 @@
     <sheet name="apf_action_log" sheetId="28" r:id="rId25"/>
     <sheet name="apf_session_log" sheetId="31" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="302">
   <si>
     <t>Cid</t>
   </si>
@@ -268,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帳號:同Cor_User Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能路徑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +352,18 @@
   </si>
   <si>
     <t>parameter_desrciption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,10 +584,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CMD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_Menu_Root</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -750,10 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_controller</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -774,6 +769,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>apf_menu_rolerelation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -845,10 +844,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0:預設角色 1:職稱角色 2:自定角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,10 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:SSO驗證 2:主檔驗證</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登入Log記錄檔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,18 +872,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWD_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密碼更新日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWD_remind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密碼提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,14 +972,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,35 +1191,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default_query_id</t>
+    <t>APF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd_update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查詢欄位id</t>
+    <t>pwd_remind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(30)</t>
+    <t>varchar(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>預設查詢條件選擇的欄位id，條件下拉選單來源為common_parameter，class = DefaultQuery，name = 查詢欄位中文名稱，value = 查詢欄位id。</t>
+    <t>瀏覽器版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameter_class</t>
+    <t>限制大寫</t>
+  </si>
+  <si>
+    <t>限制大寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameter_name</t>
+    <t>varchar(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameter_value</t>
+    <t>帳號:同Core_User Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(500)</t>
+    <t>ex:APF模組/使用者管理/權限設定/角色功能對應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionlog_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,7 +1434,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,18 +1545,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4010,7 +3988,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="47625" y="123825"/>
-          <a:ext cx="8181975" cy="495300"/>
+          <a:ext cx="8067675" cy="495300"/>
           <a:chOff x="0" y="47625"/>
           <a:chExt cx="8858249" cy="495300"/>
         </a:xfrm>
@@ -16246,7 +16224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16281,7 +16259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16492,8 +16470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16508,22 +16486,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -16531,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="29"/>
     </row>
@@ -16549,16 +16527,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -16567,16 +16545,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -16584,16 +16562,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -16602,16 +16580,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -16620,16 +16598,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="27"/>
     </row>
@@ -16638,19 +16616,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16658,16 +16636,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -16676,19 +16654,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>158</v>
-      </c>
       <c r="F10" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16696,16 +16674,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="27"/>
     </row>
@@ -16714,16 +16692,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>168</v>
       </c>
       <c r="F12" s="27"/>
     </row>
@@ -16732,19 +16710,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="F13" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16752,19 +16730,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="F14" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16772,10 +16750,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>180</v>
@@ -16784,7 +16762,7 @@
         <v>179</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -16792,19 +16770,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="F16" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16812,19 +16790,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -16832,16 +16810,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -16850,16 +16828,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -16868,19 +16846,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -16888,19 +16866,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="F21" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16908,19 +16886,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="F22" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -16928,16 +16906,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F23" s="27"/>
     </row>
@@ -16946,16 +16924,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -16964,16 +16942,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F25" s="27"/>
     </row>
@@ -16982,16 +16960,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F26" s="27"/>
     </row>
@@ -17052,25 +17030,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17086,13 +17064,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17108,13 +17086,13 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -17131,7 +17109,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -17174,25 +17152,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17208,13 +17186,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17231,7 +17209,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -17249,7 +17227,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -17267,7 +17245,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -17285,7 +17263,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -17326,25 +17304,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -17353,20 +17331,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -17375,7 +17353,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -17383,7 +17361,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -17393,14 +17371,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -17413,7 +17391,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -17421,7 +17399,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -17431,7 +17409,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -17439,7 +17417,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="2"/>
@@ -17449,7 +17427,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -17457,7 +17435,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="22"/>
       <c r="F11" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
@@ -17467,17 +17445,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -17485,7 +17463,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -17529,25 +17507,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17555,22 +17533,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17578,17 +17556,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -17597,14 +17575,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -17616,17 +17594,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -17635,14 +17613,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -17660,13 +17638,13 @@
         <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17676,7 +17654,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -17699,14 +17677,16 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A5:H20"/>
+  <dimension ref="A5:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
@@ -17716,25 +17696,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17742,22 +17722,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17765,17 +17745,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -17784,17 +17764,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G8" s="22"/>
     </row>
@@ -17803,14 +17783,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>1</v>
@@ -17822,14 +17802,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
@@ -17841,17 +17821,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -17860,18 +17840,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -17884,48 +17864,48 @@
       <c r="C13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E13" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="66">
-      <c r="A14" s="38">
+    <row r="14" spans="1:7">
+      <c r="A14" s="21">
         <v>9</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="39"/>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>119</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8" t="s">
-        <v>171</v>
+      <c r="F15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17934,10 +17914,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -17951,50 +17931,33 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="21">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18"/>
+      <c r="B19" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" location="Table_List!A1" display="返回index"/>
+    <hyperlink ref="B19" location="Table_List!A1" display="返回index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18009,7 +17972,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18026,25 +17989,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18053,22 +18016,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18077,17 +18040,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -18103,13 +18066,13 @@
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18120,7 +18083,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -18165,25 +18128,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18192,20 +18155,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18214,20 +18177,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -18236,17 +18199,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18257,7 +18220,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -18300,25 +18263,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18327,20 +18290,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18349,27 +18312,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -18396,7 +18359,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18411,25 +18374,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18438,20 +18401,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18463,14 +18426,14 @@
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -18480,19 +18443,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -18502,17 +18465,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>299</v>
+      </c>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -18522,17 +18487,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="2"/>
@@ -18542,14 +18507,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -18560,7 +18525,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -18587,7 +18552,7 @@
   <dimension ref="A5:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18602,25 +18567,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -18629,18 +18594,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -18649,14 +18614,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>182</v>
@@ -18669,14 +18634,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>183</v>
@@ -18689,17 +18654,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="2"/>
@@ -18709,14 +18674,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>183</v>
@@ -18729,14 +18694,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -18755,7 +18720,7 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>37</v>
@@ -18766,7 +18731,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -18806,25 +18771,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -18832,20 +18797,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18860,10 +18825,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -18879,7 +18844,7 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -18898,7 +18863,7 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -18917,7 +18882,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -18936,7 +18901,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -18979,25 +18944,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19006,20 +18971,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19028,20 +18993,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -19050,17 +19015,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -19068,7 +19033,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -19113,25 +19078,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19147,13 +19112,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19169,20 +19134,20 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -19223,25 +19188,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19250,14 +19215,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -19272,17 +19237,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -19292,17 +19257,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19312,7 +19277,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -19320,7 +19285,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="16"/>
       <c r="F9" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -19328,7 +19293,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -19354,9 +19319,7 @@
   </sheetPr>
   <dimension ref="A5:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19370,25 +19333,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19397,12 +19360,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -19426,10 +19389,10 @@
         <v>206</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -19439,19 +19402,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19461,19 +19424,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -19483,16 +19446,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -19503,7 +19466,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="18"/>
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -19530,8 +19493,8 @@
   </sheetPr>
   <dimension ref="A5:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19547,25 +19510,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19574,20 +19537,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19596,14 +19559,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
@@ -19616,15 +19579,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19632,7 +19595,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -19659,7 +19622,7 @@
   <dimension ref="A5:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19674,25 +19637,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19701,17 +19664,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="2"/>
@@ -19721,19 +19684,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="2"/>
@@ -19743,17 +19706,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -19763,17 +19726,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -19783,17 +19746,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
@@ -19803,15 +19766,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="22"/>
       <c r="F11" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -19821,19 +19784,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -19843,14 +19806,14 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>7</v>
@@ -19863,15 +19826,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="22"/>
       <c r="F14" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="2"/>
@@ -19879,7 +19842,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="18"/>
       <c r="B16" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19"/>
@@ -19903,7 +19866,7 @@
   <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19918,25 +19881,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19945,20 +19908,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19967,17 +19930,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="2"/>
@@ -19987,17 +19950,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20005,7 +19968,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -20045,25 +20008,25 @@
   <sheetData>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -20071,20 +20034,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -20099,7 +20062,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -20118,7 +20081,7 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -20137,10 +20100,10 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -20156,7 +20119,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -20175,7 +20138,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
@@ -20195,7 +20158,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="22"/>
       <c r="F12" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -20204,15 +20167,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -20221,7 +20184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>50</v>
@@ -20238,7 +20201,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>51</v>
@@ -20255,7 +20218,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>52</v>
@@ -20269,7 +20232,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -20303,25 +20266,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20337,13 +20300,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20352,17 +20315,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -20380,7 +20343,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -20420,25 +20383,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20450,17 +20413,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20476,10 +20439,10 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -20497,7 +20460,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -20535,25 +20498,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20569,13 +20532,13 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -20591,7 +20554,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -20611,10 +20574,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20632,7 +20595,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -20650,7 +20613,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -20691,25 +20654,25 @@
   <sheetData>
     <row r="5" spans="1:8" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20725,7 +20688,7 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20747,7 +20710,7 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -20769,10 +20732,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20790,7 +20753,7 @@
     <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -20832,25 +20795,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20862,11 +20825,11 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -20881,17 +20844,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -20908,10 +20871,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -20919,7 +20882,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -20959,25 +20922,25 @@
   <sheetData>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -20986,20 +20949,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -21011,14 +20974,14 @@
         <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="2"/>
@@ -21035,10 +20998,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="2"/>
@@ -21055,7 +21018,7 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
@@ -21076,7 +21039,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
